--- a/source contribution problem.xlsx
+++ b/source contribution problem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrstepanov/Development/positronfit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC5747E-E48F-1C4A-AA9E-77A460703668}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34281DF1-35B7-5F4B-8237-35EFD01AA442}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="26020" windowHeight="15200" xr2:uid="{38516AB7-C691-DA41-9BD3-A08C96575697}"/>
+    <workbookView xWindow="2780" yWindow="1460" windowWidth="26020" windowHeight="15200" xr2:uid="{38516AB7-C691-DA41-9BD3-A08C96575697}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>exp integration</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Vstavil svoyu res func, vse zafiksiroval krome I_source (4toby bistree s4italos').</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,25 +606,31 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
